--- a/Task4/DATA3/data_summary_3.xlsx
+++ b/Task4/DATA3/data_summary_3.xlsx
@@ -471,18 +471,18 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45591</v>
+        <v>45608</v>
       </c>
       <c r="B4" t="n">
-        <v>3127.92</v>
+        <v>3226.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45608</v>
+        <v>45591</v>
       </c>
       <c r="B5" t="n">
-        <v>3034.54</v>
+        <v>3127.92</v>
       </c>
     </row>
     <row r="6">
@@ -490,7 +490,7 @@
         <v>45597</v>
       </c>
       <c r="B6" t="n">
-        <v>2954.02</v>
+        <v>2971.77</v>
       </c>
     </row>
   </sheetData>
